--- a/sub-00AD/results_taplen_sub-00AD.xlsx
+++ b/sub-00AD/results_taplen_sub-00AD.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/sub-00AD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A0F727F9-E194-4443-BAC5-8A697AD53E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:40009_{A0F727F9-E194-4443-BAC5-8A697AD53E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6462E4D3-8DFA-46CD-B37E-345960A783AC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_taplen_sub-00AD (2)" sheetId="2" r:id="rId1"/>
@@ -19,20 +19,32 @@
   <definedNames>
     <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'results_taplen_sub-00AD (2)'!$A$1:$G$11</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Requête - results_taplen_sub-00AD" description="Connexion à la requête « results_taplen_sub-00AD » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Requête - results_taplen_sub-00AD" description="Connexion à la requête « results_taplen_sub-00AD » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=results_taplen_sub-00AD;Extended Properties=&quot;&quot;" command="SELECT * FROM [results_taplen_sub-00AD]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Essai,400,600,800,1000,1200,1400</t>
   </si>
@@ -125,12 +137,15 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>CV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,19 +674,7 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -680,19 +683,31 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -714,7 +729,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DonnéesExternes_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="Essai" tableColumnId="1"/>
@@ -730,26 +745,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="results_taplen_sub_00AD" displayName="results_taplen_sub_00AD" ref="A1:G12" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:G11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="results_taplen_sub_00AD" displayName="results_taplen_sub_00AD" ref="A1:G12" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:G11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Essai" totalsRowLabel="Moy" queryTableFieldId="1" dataDxfId="6" totalsRowDxfId="13"/>
-    <tableColumn id="2" uniqueName="2" name="400" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="5" totalsRowDxfId="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Essai" totalsRowLabel="Moy" queryTableFieldId="1" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="400" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>AVERAGE(results_taplen_sub_00AD[400])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" uniqueName="3" name="600" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="4" totalsRowDxfId="11">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="600" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>AVERAGE(results_taplen_sub_00AD[600])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" uniqueName="4" name="800" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="3" totalsRowDxfId="10">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="800" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>AVERAGE(results_taplen_sub_00AD[800])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" uniqueName="5" name="1000" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="2" totalsRowDxfId="9">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="1000" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>AVERAGE(results_taplen_sub_00AD[1000])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" uniqueName="6" name="1200" totalsRowFunction="custom" queryTableFieldId="6" dataDxfId="1" totalsRowDxfId="8">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="1200" totalsRowFunction="custom" queryTableFieldId="6" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>AVERAGE(results_taplen_sub_00AD[1200])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" uniqueName="7" name="1400" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="0" totalsRowDxfId="7">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="1400" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>AVERAGE(results_taplen_sub_00AD[1400])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1053,11 +1068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1354,28 +1369,28 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <f>_xlfn.STDEV.S(results_taplen_sub_00AD[400])</f>
-        <v>8.7326909956634599E-2</v>
+        <f>_xlfn.STDEV.P(results_taplen_sub_00AD[400])</f>
+        <v>8.2845580946220368E-2</v>
       </c>
       <c r="C13" s="2">
-        <f>_xlfn.STDEV.S(results_taplen_sub_00AD[600])</f>
-        <v>0.10443261314167372</v>
+        <f>_xlfn.STDEV.P(results_taplen_sub_00AD[600])</f>
+        <v>9.9073475859277171E-2</v>
       </c>
       <c r="D13" s="2">
-        <f>_xlfn.STDEV.S(results_taplen_sub_00AD[800])</f>
-        <v>7.899866534380709E-2</v>
+        <f>_xlfn.STDEV.P(results_taplen_sub_00AD[800])</f>
+        <v>7.4944714379951732E-2</v>
       </c>
       <c r="E13" s="2">
-        <f>_xlfn.STDEV.S(results_taplen_sub_00AD[1000])</f>
-        <v>9.2436252636110869E-2</v>
+        <f>_xlfn.STDEV.P(results_taplen_sub_00AD[1000])</f>
+        <v>8.7692729010256154E-2</v>
       </c>
       <c r="F13" s="2">
-        <f>_xlfn.STDEV.S(results_taplen_sub_00AD[1200])</f>
-        <v>9.6386305269520148E-2</v>
+        <f>_xlfn.STDEV.P(results_taplen_sub_00AD[1200])</f>
+        <v>9.1440077969991998E-2</v>
       </c>
       <c r="G13" s="2">
-        <f>_xlfn.STDEV.S(results_taplen_sub_00AD[1400])</f>
-        <v>8.602032235404819E-2</v>
+        <f>_xlfn.STDEV.P(results_taplen_sub_00AD[1400])</f>
+        <v>8.1606043110206777E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1408,12 +1423,33 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2">
+        <f>B13/results_taplen_sub_00AD[[#Totals],[400]]</f>
+        <v>0.17035589820426555</v>
+      </c>
+      <c r="C15" s="2">
+        <f>C13/results_taplen_sub_00AD[[#Totals],[600]]</f>
+        <v>0.10731147984128227</v>
+      </c>
+      <c r="D15" s="2">
+        <f>D13/results_taplen_sub_00AD[[#Totals],[800]]</f>
+        <v>6.9814226732495474E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <f>E13/results_taplen_sub_00AD[[#Totals],[1000]]</f>
+        <v>7.0999810836099561E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <f>F13/results_taplen_sub_00AD[[#Totals],[1200]]</f>
+        <v>7.1894370441893202E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <f>G13/results_taplen_sub_00AD[[#Totals],[1400]]</f>
+        <v>5.7105974710371488E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
@@ -1429,7 +1465,7 @@
       </c>
       <c r="B17" s="2">
         <f>AVERAGE(B13:G13)</f>
-        <v>9.0933511450299098E-2</v>
+        <v>8.6267103545984034E-2</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1446,7 +1482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/sub-00AD/results_taplen_sub-00AD.xlsx
+++ b/sub-00AD/results_taplen_sub-00AD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/sub-00AD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:40009_{A0F727F9-E194-4443-BAC5-8A697AD53E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6462E4D3-8DFA-46CD-B37E-345960A783AC}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:40009_{A0F727F9-E194-4443-BAC5-8A697AD53E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F55AA9E2-E132-40FB-8664-E37058A53C22}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2880" windowWidth="13700" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_taplen_sub-00AD (2)" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Essai,400,600,800,1000,1200,1400</t>
   </si>
@@ -140,12 +140,19 @@
   </si>
   <si>
     <t>CV</t>
+  </si>
+  <si>
+    <t>moyCV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -623,10 +630,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1071,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1452,7 +1461,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="2"/>
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4">
+        <f>AVERAGE(B15:G15)</f>
+        <v>9.1246960127734589E-2</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1463,7 +1478,7 @@
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <f>AVERAGE(B13:G13)</f>
         <v>8.6267103545984034E-2</v>
       </c>

--- a/sub-00AD/results_taplen_sub-00AD.xlsx
+++ b/sub-00AD/results_taplen_sub-00AD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/sub-00AD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:40009_{A0F727F9-E194-4443-BAC5-8A697AD53E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F55AA9E2-E132-40FB-8664-E37058A53C22}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:40009_{A0F727F9-E194-4443-BAC5-8A697AD53E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EB58C09-E0FE-4AF6-8EED-886411E149D8}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2880" windowWidth="13700" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_taplen_sub-00AD (2)" sheetId="2" r:id="rId1"/>
@@ -149,9 +149,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -630,12 +629,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1464,7 +1462,7 @@
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <f>AVERAGE(B15:G15)</f>
         <v>9.1246960127734589E-2</v>
       </c>

--- a/sub-00AD/results_taplen_sub-00AD.xlsx
+++ b/sub-00AD/results_taplen_sub-00AD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/sub-00AD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\sub-00AD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:40009_{A0F727F9-E194-4443-BAC5-8A697AD53E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EB58C09-E0FE-4AF6-8EED-886411E149D8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EF9388-652B-4967-AE3D-E7AE2012E197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_taplen_sub-00AD (2)" sheetId="2" r:id="rId1"/>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
